--- a/data/dividends_info_20260128.xlsx
+++ b/data/dividends_info_20260128.xlsx
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>24.43499946594238</v>
+        <v>24.96999931335449</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3683241332803892</v>
+        <v>0.3604325289342962</v>
       </c>
       <c r="J3" t="n">
         <v>54</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>56.20000076293945</v>
+        <v>56.34999847412109</v>
       </c>
       <c r="I4" t="n">
-        <v>1.156583614192113</v>
+        <v>1.153504911448249</v>
       </c>
       <c r="J4" t="n">
         <v>26</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.830000042915344</v>
+        <v>1.825000047683716</v>
       </c>
       <c r="I5" t="n">
-        <v>3.278688447701616</v>
+        <v>3.287671146976232</v>
       </c>
       <c r="J5" t="n">
         <v>12</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.2919999957084656</v>
+        <v>0.2930000126361847</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54794550747334</v>
+        <v>20.47781481651382</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.251999855041504</v>
+        <v>9.22700023651123</v>
       </c>
       <c r="I7" t="n">
-        <v>2.485949022952814</v>
+        <v>2.492684448948969</v>
       </c>
       <c r="J7" t="n">
         <v>-9</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>25.04999923706055</v>
+        <v>24.95000076293945</v>
       </c>
       <c r="I9" t="n">
-        <v>2.874251584546105</v>
+        <v>2.88577145484293</v>
       </c>
       <c r="J9" t="n">
         <v>-19</v>
@@ -880,7 +880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -976,7 +976,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>STMicroelectronics N.V.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Friends S.p.A.</t>
+          <t>STMicroelectronics N.V.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Giocamondo Study S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1020,14 +1020,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>H-FARM S.p.A.</t>
+          <t>Novamarine S.p.A.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Novamarine S.p.A.</t>
+          <t>STMicroelectronics N.V.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1054,14 +1054,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>Giocamondo Study S.p.A.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STMicroelectronics N.V.</t>
+          <t>Friends S.p.A.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1088,14 +1088,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STMicroelectronics N.V.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1112,7 +1112,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STMicroelectronics N.V.</t>
+          <t>H-FARM S.p.A.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VNE S.p.A.</t>
+          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
+          <t>VNE S.p.A.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1299,7 +1299,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>Intred S.p.A.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1309,14 +1309,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Half Year Preliminary Results</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intred S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Half Year Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1411,14 +1411,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1435,7 +1435,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1469,7 +1469,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1503,7 +1503,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>PIQUADRO S.p.A.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PIQUADRO S.p.A.</t>
+          <t>SECO S.p.A.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1530,14 +1530,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SECO S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1741,12 +1741,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Arterra Bioscience S.p.A.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1758,114 +1758,114 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>First Capital S.p.A.</t>
+          <t>Ferrari N.V.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ELICA S.p.A.</t>
+          <t>Ferrari N.V.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DEA CAPITAL REAL ESTATE SGR S.p.A.</t>
+          <t>Ferrari N.V.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Abitare In S.p.A.</t>
+          <t>Ubaldi Costruzioni S.p.A.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>VALTECNE S.p.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>eVISO S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Half Year Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1877,12 +1877,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1894,80 +1894,80 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Iveco Group N.V.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>Abitare In S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Moncler S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Moncler S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Markbass S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1979,12 +1979,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ELES S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1996,63 +1996,63 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ESAUTOMOTION S.p.A.</t>
+          <t>DEA CAPITAL REAL ESTATE SGR S.p.A.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>ELICA S.p.A.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>First Capital S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GREEN OLEO S.p.A</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2064,148 +2064,148 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
+          <t>Iveco Group N.V.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>Iveco Group N.V.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>Vimi Fasteners S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>Riba Mundo Tecnologia S.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>ECOSUNTEK S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>KALEON S.p.A.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2217,46 +2217,46 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Leone Film Group S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>EDISON S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2268,66 +2268,576 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>Markbass S.p.A.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Moncler S.p.A.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Moncler S.p.A.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>ESAUTOMOTION S.p.A.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Unipol S.p.A.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ELES S.p.A.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ENEL S.p.A.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>GREEN OLEO S.p.A</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TELECOM ITALIA S.p.A.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CASTELLO SGR S.p.A.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Industrie De Nora S.p.A.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Leonardo S.p.A.</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SAIPEM S.p.A.</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SAIPEM S.p.A.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Pirelli &amp; C. S.p.A.</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Prysmian S.p.A.</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Datrix S.p.A.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Eni S.p.A.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Stellantis N.V.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Prysmian S.p.A.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Stellantis N.V.</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>OSAI Automation System S.p.A.</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Annual General Meeting</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Eni S.p.A.</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Intesa Sanpaolo S.p.A.</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>IGD SIIQ S.p.A.</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Esprinet S.p.A.</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>doValue S.p.A.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>JUVENTUS F.C. S.p.A.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Half Year Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Renovalo S.p.A.</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Annual Preliminary Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SOGEFI S.p.A.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>I GRANDI VIAGGI S.p.A.</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Annual General Meeting</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>OSAI Automation System S.p.A.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Annual General Meeting</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
           <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>2026-02-27</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Annual Preliminary Results</t>
         </is>
@@ -2362,7 +2872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2390,168 +2900,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friends S.p.A.</t>
+          <t>KALEON S.p.A.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GREEN OLEO S.p.A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Annual General Meeting</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Novamarine S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>OPS Retail S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>OSAI Automation System S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Annual General Meeting</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Renovalo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SECO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SOGEFI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>Annual Preliminary Results</t>
         </is>
